--- a/data/pca/factorExposure/factorExposure_2013-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0005998828748654757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001885693594351267</v>
+      </c>
+      <c r="C2">
+        <v>0.03342757839431124</v>
+      </c>
+      <c r="D2">
+        <v>0.006578498464004742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002072827285967608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006077900869074664</v>
+      </c>
+      <c r="C4">
+        <v>0.08486664369032072</v>
+      </c>
+      <c r="D4">
+        <v>0.07878021777988901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.083218096791903e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01328953768182659</v>
+      </c>
+      <c r="C6">
+        <v>0.1073895887857388</v>
+      </c>
+      <c r="D6">
+        <v>0.03540312916915327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002291467747696996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004826857272455541</v>
+      </c>
+      <c r="C7">
+        <v>0.05371451819186081</v>
+      </c>
+      <c r="D7">
+        <v>0.03587233273330549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0009852338874918869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005657419043467411</v>
+      </c>
+      <c r="C8">
+        <v>0.03706483196811199</v>
+      </c>
+      <c r="D8">
+        <v>0.03897251676972673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005483808943888557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004091855169847647</v>
+      </c>
+      <c r="C9">
+        <v>0.07019267905680142</v>
+      </c>
+      <c r="D9">
+        <v>0.07167864685321433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002841220076943238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005635945808458779</v>
+      </c>
+      <c r="C10">
+        <v>0.07302185172552796</v>
+      </c>
+      <c r="D10">
+        <v>-0.2129071597067208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003675379289118346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00524155390129043</v>
+      </c>
+      <c r="C11">
+        <v>0.07816636075237753</v>
+      </c>
+      <c r="D11">
+        <v>0.06579377038663523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002320464770931852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004029658213839628</v>
+      </c>
+      <c r="C12">
+        <v>0.06401538477999022</v>
+      </c>
+      <c r="D12">
+        <v>0.04787617372872115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002771568604653989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008582652903318092</v>
+      </c>
+      <c r="C13">
+        <v>0.06983342512249661</v>
+      </c>
+      <c r="D13">
+        <v>0.06402676516257627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002280278339751557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001494596382649602</v>
+      </c>
+      <c r="C14">
+        <v>0.04632431922965317</v>
+      </c>
+      <c r="D14">
+        <v>0.0140961402784331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002438076663487678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005893343336621473</v>
+      </c>
+      <c r="C15">
+        <v>0.03936092917101737</v>
+      </c>
+      <c r="D15">
+        <v>0.03365192959430446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001945046040392508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004912287028541844</v>
+      </c>
+      <c r="C16">
+        <v>0.06461412863589258</v>
+      </c>
+      <c r="D16">
+        <v>0.05033414416876754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004386982118212041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008935696817754012</v>
+      </c>
+      <c r="C20">
+        <v>0.06507413793004828</v>
+      </c>
+      <c r="D20">
+        <v>0.05568525058428343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.006003791318862889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009852811888419693</v>
+      </c>
+      <c r="C21">
+        <v>0.02326735866520892</v>
+      </c>
+      <c r="D21">
+        <v>0.03465342224189848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01669940740492699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006804859863859232</v>
+      </c>
+      <c r="C22">
+        <v>0.09323767509395103</v>
+      </c>
+      <c r="D22">
+        <v>0.1021561830313912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01703837193365759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006616677328825304</v>
+      </c>
+      <c r="C23">
+        <v>0.09410974224475525</v>
+      </c>
+      <c r="D23">
+        <v>0.1024911545158329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00274120355165105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004848858034696737</v>
+      </c>
+      <c r="C24">
+        <v>0.07328391352545317</v>
+      </c>
+      <c r="D24">
+        <v>0.06228903118340035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004639886216485313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002722628180586824</v>
+      </c>
+      <c r="C25">
+        <v>0.07737223600343435</v>
+      </c>
+      <c r="D25">
+        <v>0.06721349891998868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006517475155241714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003618242158215238</v>
+      </c>
+      <c r="C26">
+        <v>0.04026657730071427</v>
+      </c>
+      <c r="D26">
+        <v>0.02885012134414722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.006918808137329577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0004839109809105948</v>
+      </c>
+      <c r="C28">
+        <v>0.1225547806961415</v>
+      </c>
+      <c r="D28">
+        <v>-0.3110321525821926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002088514084606419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003236536100458594</v>
+      </c>
+      <c r="C29">
+        <v>0.04858366269629508</v>
+      </c>
+      <c r="D29">
+        <v>0.01357745246893012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.0043422728286759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008782530758780924</v>
+      </c>
+      <c r="C30">
+        <v>0.137960693313889</v>
+      </c>
+      <c r="D30">
+        <v>0.108142009538936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0003461636438520916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006116229897314297</v>
+      </c>
+      <c r="C31">
+        <v>0.04578746001090474</v>
+      </c>
+      <c r="D31">
+        <v>0.0315000924877737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009941377369914806</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004080021506536511</v>
+      </c>
+      <c r="C32">
+        <v>0.04101070657253138</v>
+      </c>
+      <c r="D32">
+        <v>0.01644380385456609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003754495912197129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007825097993267856</v>
+      </c>
+      <c r="C33">
+        <v>0.08299637034041434</v>
+      </c>
+      <c r="D33">
+        <v>0.07555867936176684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004970590289738643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003778388972973872</v>
+      </c>
+      <c r="C34">
+        <v>0.05781322256233049</v>
+      </c>
+      <c r="D34">
+        <v>0.04796593395781016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002856942589779132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004908677596987002</v>
+      </c>
+      <c r="C35">
+        <v>0.03874836571288898</v>
+      </c>
+      <c r="D35">
+        <v>0.0133788458349228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004855800105679448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001322046142301128</v>
+      </c>
+      <c r="C36">
+        <v>0.02348555595692105</v>
+      </c>
+      <c r="D36">
+        <v>0.02295675668873599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001484650051709487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009257603444575064</v>
+      </c>
+      <c r="C38">
+        <v>0.03264682788538666</v>
+      </c>
+      <c r="D38">
+        <v>0.01953700492607136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01289664129856521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009161302224862054</v>
+      </c>
+      <c r="C39">
+        <v>0.115701964027429</v>
+      </c>
+      <c r="D39">
+        <v>0.08494084291721898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.007952193671403833</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002268692433830885</v>
+      </c>
+      <c r="C40">
+        <v>0.08704293239683997</v>
+      </c>
+      <c r="D40">
+        <v>0.02144259240889469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0005423580274881429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00737403121015036</v>
+      </c>
+      <c r="C41">
+        <v>0.03930966581977308</v>
+      </c>
+      <c r="D41">
+        <v>0.03458809696537337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003367584473324676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003490774872603294</v>
+      </c>
+      <c r="C43">
+        <v>0.05078833104024021</v>
+      </c>
+      <c r="D43">
+        <v>0.0259495442207731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002866814651622265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003562384528849674</v>
+      </c>
+      <c r="C44">
+        <v>0.1083960282945726</v>
+      </c>
+      <c r="D44">
+        <v>0.0848715271134769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002542914352529406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002285941460074988</v>
+      </c>
+      <c r="C46">
+        <v>0.03476027374187206</v>
+      </c>
+      <c r="D46">
+        <v>0.03110742971649544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0005080616033544716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002708614704051986</v>
+      </c>
+      <c r="C47">
+        <v>0.03835484754105387</v>
+      </c>
+      <c r="D47">
+        <v>0.0230385241024509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004071909980847888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006365414561282471</v>
+      </c>
+      <c r="C48">
+        <v>0.02814623920430804</v>
+      </c>
+      <c r="D48">
+        <v>0.03308837907018794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01237116631767326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01422520386255536</v>
+      </c>
+      <c r="C49">
+        <v>0.1724609416832993</v>
+      </c>
+      <c r="D49">
+        <v>0.0291536356876237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.000871951399596014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003631203110304979</v>
+      </c>
+      <c r="C50">
+        <v>0.04261426345357417</v>
+      </c>
+      <c r="D50">
+        <v>0.03569151007975268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001913087473353881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004296568129617352</v>
+      </c>
+      <c r="C51">
+        <v>0.02005772545483592</v>
+      </c>
+      <c r="D51">
+        <v>0.03308324776989514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0004180786012574378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02023601049133754</v>
+      </c>
+      <c r="C53">
+        <v>0.1656483884531654</v>
+      </c>
+      <c r="D53">
+        <v>0.04784909884333648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0002288724599059039</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00864156981319553</v>
+      </c>
+      <c r="C54">
+        <v>0.0553186715358225</v>
+      </c>
+      <c r="D54">
+        <v>0.04292513578070504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004213045866614693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009265903231654164</v>
+      </c>
+      <c r="C55">
+        <v>0.1058325702175085</v>
+      </c>
+      <c r="D55">
+        <v>0.05172002214401122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002771586484726888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01951172561197048</v>
+      </c>
+      <c r="C56">
+        <v>0.1722494124498616</v>
+      </c>
+      <c r="D56">
+        <v>0.04560799745519146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008241229644381466</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01936516200250358</v>
+      </c>
+      <c r="C58">
+        <v>0.1038259478205714</v>
+      </c>
+      <c r="D58">
+        <v>0.06965409646056855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008727362672123746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009534263863876498</v>
+      </c>
+      <c r="C59">
+        <v>0.1676620646628234</v>
+      </c>
+      <c r="D59">
+        <v>-0.2856245564419269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005707643694638069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02333984536061053</v>
+      </c>
+      <c r="C60">
+        <v>0.2210691602231899</v>
+      </c>
+      <c r="D60">
+        <v>0.02979204552297078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01434740174052868</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001962942839523384</v>
+      </c>
+      <c r="C61">
+        <v>0.09506679790869778</v>
+      </c>
+      <c r="D61">
+        <v>0.06263344334749488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1782840479407263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1438198684205536</v>
+      </c>
+      <c r="C62">
+        <v>0.0788189150808988</v>
+      </c>
+      <c r="D62">
+        <v>0.05474099876716385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001968548991512976</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006410950412409465</v>
+      </c>
+      <c r="C63">
+        <v>0.05947600317099531</v>
+      </c>
+      <c r="D63">
+        <v>0.02490724997515568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005613074778015166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01469114489602183</v>
+      </c>
+      <c r="C64">
+        <v>0.1024788288143288</v>
+      </c>
+      <c r="D64">
+        <v>0.06552325553828935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0007703262611999762</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01695506002470187</v>
+      </c>
+      <c r="C65">
+        <v>0.1147120325190784</v>
+      </c>
+      <c r="D65">
+        <v>0.02586099970162305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008677731833919096</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01231444498735479</v>
+      </c>
+      <c r="C66">
+        <v>0.1547398032678068</v>
+      </c>
+      <c r="D66">
+        <v>0.1221623230863182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002725315858129689</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01538468938799387</v>
+      </c>
+      <c r="C67">
+        <v>0.06276232842162255</v>
+      </c>
+      <c r="D67">
+        <v>0.03028704737435464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008763500339661386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001138442010909578</v>
+      </c>
+      <c r="C68">
+        <v>0.1040842214762085</v>
+      </c>
+      <c r="D68">
+        <v>-0.259675028276807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002958583697744625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005954720519086372</v>
+      </c>
+      <c r="C69">
+        <v>0.04783805165455606</v>
+      </c>
+      <c r="D69">
+        <v>0.04269534964954178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001753460346508189</v>
+      </c>
+      <c r="C70">
+        <v>0.002198317603653987</v>
+      </c>
+      <c r="D70">
+        <v>0.002155052196718542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004903904887707486</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006065804666159005</v>
+      </c>
+      <c r="C71">
+        <v>0.107973549270479</v>
+      </c>
+      <c r="D71">
+        <v>-0.2847722400844341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00785618264108383</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01549773970323839</v>
+      </c>
+      <c r="C72">
+        <v>0.1488567991534523</v>
+      </c>
+      <c r="D72">
+        <v>0.02173477897752327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01091022690284913</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02923391119661726</v>
+      </c>
+      <c r="C73">
+        <v>0.281226073760298</v>
+      </c>
+      <c r="D73">
+        <v>0.04823689993327504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.00439540372433021</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001309520965938196</v>
+      </c>
+      <c r="C74">
+        <v>0.1043279117709715</v>
+      </c>
+      <c r="D74">
+        <v>0.04483269255154858</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.005589291514304826</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01059904215107258</v>
+      </c>
+      <c r="C75">
+        <v>0.1319218691072839</v>
+      </c>
+      <c r="D75">
+        <v>0.02714117609765231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01173420654553039</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02120182979233989</v>
+      </c>
+      <c r="C76">
+        <v>0.1470268672989356</v>
+      </c>
+      <c r="D76">
+        <v>0.07100573348853102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001995968162759405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0242313266417221</v>
+      </c>
+      <c r="C77">
+        <v>0.1344850568935662</v>
+      </c>
+      <c r="D77">
+        <v>0.06148686910301572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0007444304390663853</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01424072476092053</v>
+      </c>
+      <c r="C78">
+        <v>0.0926246365651861</v>
+      </c>
+      <c r="D78">
+        <v>0.06797793134041909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02649554390034127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03686770794952247</v>
+      </c>
+      <c r="C79">
+        <v>0.1572056632751878</v>
+      </c>
+      <c r="D79">
+        <v>0.0315906778915882</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004753649874951914</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01036676768857327</v>
+      </c>
+      <c r="C80">
+        <v>0.04106348676521759</v>
+      </c>
+      <c r="D80">
+        <v>0.03311215384105389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001746435414580296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01454370015948805</v>
+      </c>
+      <c r="C81">
+        <v>0.1225367581830831</v>
+      </c>
+      <c r="D81">
+        <v>0.05625479130377867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005757125576263891</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01950536194329571</v>
+      </c>
+      <c r="C82">
+        <v>0.1422383071820796</v>
+      </c>
+      <c r="D82">
+        <v>0.04556306236420916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009154130954043039</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009936841215371991</v>
+      </c>
+      <c r="C83">
+        <v>0.05696398892622666</v>
+      </c>
+      <c r="D83">
+        <v>0.04778426456755921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01355852194209011</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0116899090612944</v>
+      </c>
+      <c r="C84">
+        <v>0.03204771732559893</v>
+      </c>
+      <c r="D84">
+        <v>-0.003223063442729093</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01457572132255531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02787683872311429</v>
+      </c>
+      <c r="C85">
+        <v>0.1283875212115373</v>
+      </c>
+      <c r="D85">
+        <v>0.04911643038139257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002874310868901002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005506821452845142</v>
+      </c>
+      <c r="C86">
+        <v>0.04966125023505758</v>
+      </c>
+      <c r="D86">
+        <v>0.02002399368943357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007799674780711953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01019568658806188</v>
+      </c>
+      <c r="C87">
+        <v>0.1295775247199229</v>
+      </c>
+      <c r="D87">
+        <v>0.07725387311833486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01520621749527889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002839932526149661</v>
+      </c>
+      <c r="C88">
+        <v>0.06903157992847801</v>
+      </c>
+      <c r="D88">
+        <v>0.01487659074828195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01716206621488191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.0009179102348281058</v>
+      </c>
+      <c r="C89">
+        <v>0.157928829235767</v>
+      </c>
+      <c r="D89">
+        <v>-0.3378680647122397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.005662564126984896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007389815506175009</v>
+      </c>
+      <c r="C90">
+        <v>0.1379957032773744</v>
+      </c>
+      <c r="D90">
+        <v>-0.3211915119731278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001355833223178161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01020679894292217</v>
+      </c>
+      <c r="C91">
+        <v>0.1051993273824046</v>
+      </c>
+      <c r="D91">
+        <v>0.01947283568412215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01426341536092927</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0005783389199968754</v>
+      </c>
+      <c r="C92">
+        <v>0.1479404420106478</v>
+      </c>
+      <c r="D92">
+        <v>-0.3300023783122144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.003279421320792647</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005354134501217914</v>
+      </c>
+      <c r="C93">
+        <v>0.1221655712639715</v>
+      </c>
+      <c r="D93">
+        <v>-0.3149961759604649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004043886327436005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02220701319780591</v>
+      </c>
+      <c r="C94">
+        <v>0.1562313107532856</v>
+      </c>
+      <c r="D94">
+        <v>0.03227066409598844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004988648032667702</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01605486789250285</v>
+      </c>
+      <c r="C95">
+        <v>0.1245321844531126</v>
+      </c>
+      <c r="D95">
+        <v>0.06662346711743648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.003524417314844463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0347137789791994</v>
+      </c>
+      <c r="C97">
+        <v>0.1797524312339474</v>
+      </c>
+      <c r="D97">
+        <v>0.03834810240638755</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.007070079690557922</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03641009884794654</v>
+      </c>
+      <c r="C98">
+        <v>0.2538695828718552</v>
+      </c>
+      <c r="D98">
+        <v>0.04647643428281728</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.981669923189573</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9826935644818403</v>
+      </c>
+      <c r="C99">
+        <v>-0.1103041402327762</v>
+      </c>
+      <c r="D99">
+        <v>-0.03120757750616191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002045405556435233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003279713806868431</v>
+      </c>
+      <c r="C101">
+        <v>0.04861032149877792</v>
+      </c>
+      <c r="D101">
+        <v>0.01397702151071798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
